--- a/REGULAR/CEO/DEL MUNDO, HERMOGENES.xlsx
+++ b/REGULAR/CEO/DEL MUNDO, HERMOGENES.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="432">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1288,6 +1288,48 @@
   </si>
   <si>
     <t>UT(0-4-43)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/1,18-21/2023</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/28,29/2023</t>
+  </si>
+  <si>
+    <t>UT(3-4-28)</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(4-4-17)</t>
+  </si>
+  <si>
+    <t>10/12,13,16,18,19,31/2023</t>
+  </si>
+  <si>
+    <t>UT(1-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-4-45)</t>
+  </si>
+  <si>
+    <t>7/10,13/2023</t>
+  </si>
+  <si>
+    <t>UT(0-3-40)</t>
+  </si>
+  <si>
+    <t>6/13,29/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-8)</t>
   </si>
 </sst>
 </file>
@@ -3737,7 +3779,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K602" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K609" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4115,12 +4157,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K602"/>
+  <dimension ref="A2:K609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A510" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A531" activePane="bottomLeft"/>
       <selection activeCell="F11" sqref="F11"/>
-      <selection pane="bottomLeft" activeCell="E521" sqref="E521"/>
+      <selection pane="bottomLeft" activeCell="F546" sqref="F546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4279,7 +4321,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>13.101999999999919</v>
+        <v>-7.310000000000116</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4289,7 +4331,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>106.08300000000003</v>
+        <v>112.33300000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15437,7 +15479,7 @@
       <c r="H500" s="39"/>
       <c r="I500" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>106.08300000000003</v>
+        <v>112.33300000000003</v>
       </c>
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
@@ -16221,11 +16263,15 @@
       <c r="A537" s="40">
         <v>45078</v>
       </c>
-      <c r="B537" s="20"/>
+      <c r="B537" s="20" t="s">
+        <v>402</v>
+      </c>
       <c r="C537" s="13">
         <v>1.25</v>
       </c>
-      <c r="D537" s="39"/>
+      <c r="D537" s="39">
+        <v>2</v>
+      </c>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
       <c r="G537" s="13">
@@ -16235,22 +16281,24 @@
       <c r="H537" s="39"/>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
-      <c r="K537" s="20"/>
+      <c r="K537" s="20" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B538" s="20"/>
-      <c r="C538" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D538" s="39"/>
+      <c r="A538" s="40"/>
+      <c r="B538" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C538" s="13"/>
+      <c r="D538" s="39">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G538" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
@@ -16259,29 +16307,39 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B539" s="20"/>
-      <c r="C539" s="13"/>
-      <c r="D539" s="39"/>
+        <v>45108</v>
+      </c>
+      <c r="B539" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C539" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D539" s="39">
+        <v>2</v>
+      </c>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G539" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H539" s="39"/>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="20"/>
+      <c r="K539" s="20" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A540" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B540" s="20"/>
+      <c r="A540" s="40"/>
+      <c r="B540" s="20" t="s">
+        <v>429</v>
+      </c>
       <c r="C540" s="13"/>
-      <c r="D540" s="39"/>
+      <c r="D540" s="39">
+        <v>0.45800000000000002</v>
+      </c>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
       <c r="G540" s="13" t="str">
@@ -16295,16 +16353,22 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B541" s="20"/>
-      <c r="C541" s="13"/>
-      <c r="D541" s="39"/>
+        <v>45139</v>
+      </c>
+      <c r="B541" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C541" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D541" s="39">
+        <v>0.59399999999999997</v>
+      </c>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
-      <c r="G541" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G541" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H541" s="39"/>
       <c r="I541" s="9"/>
@@ -16313,16 +16377,22 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B542" s="20"/>
-      <c r="C542" s="13"/>
-      <c r="D542" s="39"/>
+        <v>45170</v>
+      </c>
+      <c r="B542" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C542" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D542" s="39">
+        <v>1.5</v>
+      </c>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
-      <c r="G542" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G542" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H542" s="39"/>
       <c r="I542" s="9"/>
@@ -16331,47 +16401,63 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B543" s="20"/>
-      <c r="C543" s="13"/>
-      <c r="D543" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B543" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C543" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D543" s="39">
+        <v>6</v>
+      </c>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
-      <c r="G543" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G543" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H543" s="39"/>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="20"/>
+      <c r="K543" s="20" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B544" s="20"/>
-      <c r="C544" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B544" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C544" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D544" s="39"/>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
-      <c r="G544" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G544" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H544" s="39"/>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
-      <c r="K544" s="20"/>
+      <c r="K544" s="59">
+        <v>45233</v>
+      </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A545" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B545" s="20"/>
+      <c r="A545" s="40"/>
+      <c r="B545" s="20" t="s">
+        <v>401</v>
+      </c>
       <c r="C545" s="13"/>
-      <c r="D545" s="39"/>
+      <c r="D545" s="39">
+        <v>1</v>
+      </c>
       <c r="E545" s="9"/>
       <c r="F545" s="20"/>
       <c r="G545" s="13" t="str">
@@ -16381,15 +16467,19 @@
       <c r="H545" s="39"/>
       <c r="I545" s="9"/>
       <c r="J545" s="11"/>
-      <c r="K545" s="20"/>
+      <c r="K545" s="59">
+        <v>45245</v>
+      </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A546" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B546" s="20"/>
+      <c r="A546" s="40"/>
+      <c r="B546" s="20" t="s">
+        <v>424</v>
+      </c>
       <c r="C546" s="13"/>
-      <c r="D546" s="39"/>
+      <c r="D546" s="39">
+        <v>4.5350000000000001</v>
+      </c>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
       <c r="G546" s="13" t="str">
@@ -16399,31 +16489,39 @@
       <c r="H546" s="39"/>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="20"/>
+      <c r="K546" s="59"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B547" s="20"/>
-      <c r="C547" s="13"/>
-      <c r="D547" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B547" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C547" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D547" s="39">
+        <v>5</v>
+      </c>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G547" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H547" s="39"/>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="20"/>
+      <c r="K547" s="20" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A548" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B548" s="20"/>
+      <c r="A548" s="40"/>
+      <c r="B548" s="20" t="s">
+        <v>420</v>
+      </c>
       <c r="C548" s="13"/>
       <c r="D548" s="39"/>
       <c r="E548" s="9"/>
@@ -16435,15 +16533,19 @@
       <c r="H548" s="39"/>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
-      <c r="K548" s="20"/>
+      <c r="K548" s="20" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A549" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B549" s="20"/>
+      <c r="A549" s="40"/>
+      <c r="B549" s="20" t="s">
+        <v>422</v>
+      </c>
       <c r="C549" s="13"/>
-      <c r="D549" s="39"/>
+      <c r="D549" s="39">
+        <v>3.5579999999999998</v>
+      </c>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
       <c r="G549" s="13" t="str">
@@ -16456,8 +16558,8 @@
       <c r="K549" s="20"/>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" s="40">
-        <v>45474</v>
+      <c r="A550" s="48" t="s">
+        <v>418</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16475,7 +16577,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45505</v>
+        <v>45292</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16493,7 +16595,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45536</v>
+        <v>45323</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16511,7 +16613,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45566</v>
+        <v>45352</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16529,7 +16631,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45597</v>
+        <v>45383</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16547,7 +16649,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45627</v>
+        <v>45413</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16565,7 +16667,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45658</v>
+        <v>45444</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16583,7 +16685,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45689</v>
+        <v>45474</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16601,7 +16703,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45717</v>
+        <v>45505</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16619,7 +16721,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45748</v>
+        <v>45536</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16637,7 +16739,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45778</v>
+        <v>45566</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16655,7 +16757,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45809</v>
+        <v>45597</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16673,7 +16775,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45839</v>
+        <v>45627</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16691,7 +16793,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45870</v>
+        <v>45658</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16709,7 +16811,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45901</v>
+        <v>45689</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16727,7 +16829,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45931</v>
+        <v>45717</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16745,7 +16847,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45962</v>
+        <v>45748</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16763,7 +16865,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45992</v>
+        <v>45778</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16781,7 +16883,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>46023</v>
+        <v>45809</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16799,7 +16901,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>46054</v>
+        <v>45839</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16817,7 +16919,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>46082</v>
+        <v>45870</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16835,7 +16937,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>46113</v>
+        <v>45901</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16853,7 +16955,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>46143</v>
+        <v>45931</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16871,7 +16973,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>46174</v>
+        <v>45962</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16889,7 +16991,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>46204</v>
+        <v>45992</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16907,7 +17009,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>46235</v>
+        <v>46023</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16925,7 +17027,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>46266</v>
+        <v>46054</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16943,7 +17045,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>46296</v>
+        <v>46082</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16961,7 +17063,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>46327</v>
+        <v>46113</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16979,7 +17081,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>46357</v>
+        <v>46143</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16997,7 +17099,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>46388</v>
+        <v>46174</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -17015,7 +17117,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>46419</v>
+        <v>46204</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17033,7 +17135,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>46447</v>
+        <v>46235</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17051,7 +17153,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>46478</v>
+        <v>46266</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17069,7 +17171,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>46508</v>
+        <v>46296</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17087,7 +17189,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>46539</v>
+        <v>46327</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17105,7 +17207,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>46569</v>
+        <v>46357</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17123,7 +17225,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>46600</v>
+        <v>46388</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17141,7 +17243,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>46631</v>
+        <v>46419</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17159,7 +17261,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>46661</v>
+        <v>46447</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17177,7 +17279,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>46692</v>
+        <v>46478</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17195,7 +17297,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>46722</v>
+        <v>46508</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17213,7 +17315,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>46753</v>
+        <v>46539</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17231,7 +17333,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>46784</v>
+        <v>46569</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17249,7 +17351,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>46813</v>
+        <v>46600</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17267,7 +17369,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>46844</v>
+        <v>46631</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17285,7 +17387,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>46874</v>
+        <v>46661</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17303,7 +17405,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>46905</v>
+        <v>46692</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17321,7 +17423,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>46935</v>
+        <v>46722</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17339,7 +17441,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>46966</v>
+        <v>46753</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17357,7 +17459,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>46997</v>
+        <v>46784</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17375,7 +17477,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>47027</v>
+        <v>46813</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17393,7 +17495,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>47058</v>
+        <v>46844</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17408,6 +17510,132 @@
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A603" s="40">
+        <v>46874</v>
+      </c>
+      <c r="B603" s="20"/>
+      <c r="C603" s="13"/>
+      <c r="D603" s="39"/>
+      <c r="E603" s="9"/>
+      <c r="F603" s="20"/>
+      <c r="G603" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H603" s="39"/>
+      <c r="I603" s="9"/>
+      <c r="J603" s="11"/>
+      <c r="K603" s="20"/>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A604" s="40">
+        <v>46905</v>
+      </c>
+      <c r="B604" s="20"/>
+      <c r="C604" s="13"/>
+      <c r="D604" s="39"/>
+      <c r="E604" s="9"/>
+      <c r="F604" s="20"/>
+      <c r="G604" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H604" s="39"/>
+      <c r="I604" s="9"/>
+      <c r="J604" s="11"/>
+      <c r="K604" s="20"/>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A605" s="40">
+        <v>46935</v>
+      </c>
+      <c r="B605" s="20"/>
+      <c r="C605" s="13"/>
+      <c r="D605" s="39"/>
+      <c r="E605" s="9"/>
+      <c r="F605" s="20"/>
+      <c r="G605" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H605" s="39"/>
+      <c r="I605" s="9"/>
+      <c r="J605" s="11"/>
+      <c r="K605" s="20"/>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A606" s="40">
+        <v>46966</v>
+      </c>
+      <c r="B606" s="20"/>
+      <c r="C606" s="13"/>
+      <c r="D606" s="39"/>
+      <c r="E606" s="9"/>
+      <c r="F606" s="20"/>
+      <c r="G606" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H606" s="39"/>
+      <c r="I606" s="9"/>
+      <c r="J606" s="11"/>
+      <c r="K606" s="20"/>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A607" s="40">
+        <v>46997</v>
+      </c>
+      <c r="B607" s="20"/>
+      <c r="C607" s="13"/>
+      <c r="D607" s="39"/>
+      <c r="E607" s="9"/>
+      <c r="F607" s="20"/>
+      <c r="G607" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H607" s="39"/>
+      <c r="I607" s="9"/>
+      <c r="J607" s="11"/>
+      <c r="K607" s="20"/>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A608" s="40">
+        <v>47027</v>
+      </c>
+      <c r="B608" s="20"/>
+      <c r="C608" s="13"/>
+      <c r="D608" s="39"/>
+      <c r="E608" s="9"/>
+      <c r="F608" s="20"/>
+      <c r="G608" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H608" s="39"/>
+      <c r="I608" s="9"/>
+      <c r="J608" s="11"/>
+      <c r="K608" s="20"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609" s="40">
+        <v>47058</v>
+      </c>
+      <c r="B609" s="20"/>
+      <c r="C609" s="13"/>
+      <c r="D609" s="39"/>
+      <c r="E609" s="9"/>
+      <c r="F609" s="20"/>
+      <c r="G609" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H609" s="39"/>
+      <c r="I609" s="9"/>
+      <c r="J609" s="11"/>
+      <c r="K609" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17517,18 +17745,14 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.59</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CEO/DEL MUNDO, HERMOGENES.xlsx
+++ b/REGULAR/CEO/DEL MUNDO, HERMOGENES.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="442">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1330,6 +1330,36 @@
   </si>
   <si>
     <t>UT(0-0-8)</t>
+  </si>
+  <si>
+    <t>UT(2-4-12)</t>
+  </si>
+  <si>
+    <t>4/17,19/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-50)</t>
+  </si>
+  <si>
+    <t>3/1,2,3,15,21,30/2023</t>
+  </si>
+  <si>
+    <t>UT(1-1-5)</t>
+  </si>
+  <si>
+    <t>A(8-0-0)</t>
+  </si>
+  <si>
+    <t>2/2,9,10,20-23,27/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-25)</t>
+  </si>
+  <si>
+    <t>1/13,18/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-18)</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2274,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2317,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2381,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2441,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2507,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2570,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2668,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,7 +2727,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,7 +2792,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2835,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,7 +2910,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3096,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,7 +3162,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3190,7 +3220,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3256,7 +3286,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +3342,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3387,7 +3417,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3430,7 +3460,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3496,7 +3526,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3552,7 +3582,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3650,7 +3680,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3713,7 +3743,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3779,7 +3809,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K609" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K614" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4157,12 +4187,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K609"/>
+  <dimension ref="A2:K614"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A531" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A525" activePane="bottomLeft"/>
       <selection activeCell="F11" sqref="F11"/>
-      <selection pane="bottomLeft" activeCell="F546" sqref="F546"/>
+      <selection pane="bottomLeft" activeCell="E537" sqref="E537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4321,7 +4351,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-7.310000000000116</v>
+        <v>-30.163000000000068</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -16163,11 +16193,15 @@
       <c r="A532" s="40">
         <v>44927</v>
       </c>
-      <c r="B532" s="20"/>
+      <c r="B532" s="20" t="s">
+        <v>402</v>
+      </c>
       <c r="C532" s="13">
         <v>1.25</v>
       </c>
-      <c r="D532" s="39"/>
+      <c r="D532" s="39">
+        <v>2</v>
+      </c>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
       <c r="G532" s="13">
@@ -16177,22 +16211,24 @@
       <c r="H532" s="39"/>
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
-      <c r="K532" s="20"/>
+      <c r="K532" s="20" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A533" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B533" s="20"/>
-      <c r="C533" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D533" s="39"/>
+      <c r="A533" s="40"/>
+      <c r="B533" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="C533" s="13"/>
+      <c r="D533" s="39">
+        <v>3.7000000000000019E-2</v>
+      </c>
       <c r="E533" s="9"/>
       <c r="F533" s="20"/>
-      <c r="G533" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G533" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H533" s="39"/>
       <c r="I533" s="9"/>
@@ -16201,13 +16237,17 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B534" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B534" s="20" t="s">
+        <v>437</v>
+      </c>
       <c r="C534" s="13">
         <v>1.25</v>
       </c>
-      <c r="D534" s="39"/>
+      <c r="D534" s="39">
+        <v>8</v>
+      </c>
       <c r="E534" s="9"/>
       <c r="F534" s="20"/>
       <c r="G534" s="13">
@@ -16217,22 +16257,24 @@
       <c r="H534" s="39"/>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
-      <c r="K534" s="20"/>
+      <c r="K534" s="20" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B535" s="20"/>
-      <c r="C535" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D535" s="39"/>
+      <c r="A535" s="40"/>
+      <c r="B535" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C535" s="13"/>
+      <c r="D535" s="39">
+        <v>5.2000000000000011E-2</v>
+      </c>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
-      <c r="G535" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G535" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H535" s="39"/>
       <c r="I535" s="9"/>
@@ -16241,13 +16283,17 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B536" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B536" s="20" t="s">
+        <v>415</v>
+      </c>
       <c r="C536" s="13">
         <v>1.25</v>
       </c>
-      <c r="D536" s="39"/>
+      <c r="D536" s="39">
+        <v>6</v>
+      </c>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
       <c r="G536" s="13">
@@ -16257,136 +16303,134 @@
       <c r="H536" s="39"/>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
-      <c r="K536" s="20"/>
+      <c r="K536" s="20" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A537" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="C537" s="13">
-        <v>1.25</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C537" s="13"/>
       <c r="D537" s="39">
-        <v>2</v>
+        <v>1.135</v>
       </c>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
-      <c r="G537" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G537" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H537" s="39"/>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
-      <c r="K537" s="20" t="s">
-        <v>430</v>
-      </c>
+      <c r="K537" s="20"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="40"/>
+      <c r="A538" s="40">
+        <v>45017</v>
+      </c>
       <c r="B538" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="C538" s="13"/>
+        <v>402</v>
+      </c>
+      <c r="C538" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D538" s="39">
-        <v>1.7000000000000001E-2</v>
+        <v>2</v>
       </c>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G538" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
-      <c r="K538" s="20"/>
+      <c r="K538" s="20" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="C539" s="13">
-        <v>1.25</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C539" s="13"/>
       <c r="D539" s="39">
-        <v>2</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G539" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H539" s="39"/>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="20" t="s">
-        <v>428</v>
-      </c>
+      <c r="K539" s="20"/>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A540" s="40"/>
+      <c r="A540" s="40">
+        <v>45047</v>
+      </c>
       <c r="B540" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="C540" s="13"/>
+        <v>401</v>
+      </c>
+      <c r="C540" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D540" s="39">
-        <v>0.45800000000000002</v>
+        <v>1</v>
       </c>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
-      <c r="G540" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G540" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H540" s="39"/>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
-      <c r="K540" s="20"/>
+      <c r="K540" s="59">
+        <v>45048</v>
+      </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A541" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="C541" s="13">
-        <v>1.25</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C541" s="13"/>
       <c r="D541" s="39">
-        <v>0.59399999999999997</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
-      <c r="G541" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G541" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H541" s="39"/>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
-      <c r="K541" s="20"/>
+      <c r="K541" s="59"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45170</v>
+        <v>45078</v>
       </c>
       <c r="B542" s="20" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="C542" s="13">
         <v>1.25</v>
       </c>
       <c r="D542" s="39">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
@@ -16397,45 +16441,43 @@
       <c r="H542" s="39"/>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
-      <c r="K542" s="20"/>
+      <c r="K542" s="20" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A543" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="C543" s="13">
-        <v>1.25</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C543" s="13"/>
       <c r="D543" s="39">
-        <v>6</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
-      <c r="G543" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G543" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H543" s="39"/>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="20" t="s">
-        <v>425</v>
-      </c>
+      <c r="K543" s="20"/>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45231</v>
+        <v>45108</v>
       </c>
       <c r="B544" s="20" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="C544" s="13">
         <v>1.25</v>
       </c>
-      <c r="D544" s="39"/>
+      <c r="D544" s="39">
+        <v>2</v>
+      </c>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
       <c r="G544" s="13">
@@ -16445,18 +16487,18 @@
       <c r="H544" s="39"/>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
-      <c r="K544" s="59">
-        <v>45233</v>
+      <c r="K544" s="20" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="C545" s="13"/>
       <c r="D545" s="39">
-        <v>1</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="E545" s="9"/>
       <c r="F545" s="20"/>
@@ -16467,42 +16509,44 @@
       <c r="H545" s="39"/>
       <c r="I545" s="9"/>
       <c r="J545" s="11"/>
-      <c r="K545" s="59">
-        <v>45245</v>
-      </c>
+      <c r="K545" s="20"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A546" s="40"/>
+      <c r="A546" s="40">
+        <v>45139</v>
+      </c>
       <c r="B546" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="C546" s="13"/>
+        <v>427</v>
+      </c>
+      <c r="C546" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D546" s="39">
-        <v>4.5350000000000001</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
-      <c r="G546" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G546" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H546" s="39"/>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="59"/>
+      <c r="K546" s="20"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B547" s="20" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="C547" s="13">
         <v>1.25</v>
       </c>
       <c r="D547" s="39">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
@@ -16513,57 +16557,67 @@
       <c r="H547" s="39"/>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="20" t="s">
-        <v>419</v>
-      </c>
+      <c r="K547" s="20"/>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A548" s="40"/>
+      <c r="A548" s="40">
+        <v>45200</v>
+      </c>
       <c r="B548" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C548" s="13"/>
-      <c r="D548" s="39"/>
+        <v>415</v>
+      </c>
+      <c r="C548" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D548" s="39">
+        <v>6</v>
+      </c>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
-      <c r="G548" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G548" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H548" s="39"/>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
       <c r="K548" s="20" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A549" s="40"/>
+      <c r="A549" s="40">
+        <v>45231</v>
+      </c>
       <c r="B549" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="C549" s="13"/>
-      <c r="D549" s="39">
-        <v>3.5579999999999998</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C549" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D549" s="39"/>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
-      <c r="G549" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G549" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H549" s="39"/>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
-      <c r="K549" s="20"/>
+      <c r="K549" s="59">
+        <v>45233</v>
+      </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="B550" s="20"/>
+      <c r="A550" s="40"/>
+      <c r="B550" s="20" t="s">
+        <v>401</v>
+      </c>
       <c r="C550" s="13"/>
-      <c r="D550" s="39"/>
+      <c r="D550" s="39">
+        <v>1</v>
+      </c>
       <c r="E550" s="9"/>
       <c r="F550" s="20"/>
       <c r="G550" s="13" t="str">
@@ -16573,15 +16627,19 @@
       <c r="H550" s="39"/>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
-      <c r="K550" s="20"/>
+      <c r="K550" s="59">
+        <v>45245</v>
+      </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A551" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B551" s="20"/>
+      <c r="A551" s="40"/>
+      <c r="B551" s="20" t="s">
+        <v>424</v>
+      </c>
       <c r="C551" s="13"/>
-      <c r="D551" s="39"/>
+      <c r="D551" s="39">
+        <v>4.5350000000000001</v>
+      </c>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
       <c r="G551" s="13" t="str">
@@ -16591,31 +16649,39 @@
       <c r="H551" s="39"/>
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
-      <c r="K551" s="20"/>
+      <c r="K551" s="59"/>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B552" s="20"/>
-      <c r="C552" s="13"/>
-      <c r="D552" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B552" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C552" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D552" s="39">
+        <v>5</v>
+      </c>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G552" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H552" s="39"/>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="20"/>
+      <c r="K552" s="20" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A553" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B553" s="20"/>
+      <c r="A553" s="40"/>
+      <c r="B553" s="20" t="s">
+        <v>420</v>
+      </c>
       <c r="C553" s="13"/>
       <c r="D553" s="39"/>
       <c r="E553" s="9"/>
@@ -16627,15 +16693,19 @@
       <c r="H553" s="39"/>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
-      <c r="K553" s="20"/>
+      <c r="K553" s="20" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B554" s="20"/>
+      <c r="A554" s="40"/>
+      <c r="B554" s="20" t="s">
+        <v>422</v>
+      </c>
       <c r="C554" s="13"/>
-      <c r="D554" s="39"/>
+      <c r="D554" s="39">
+        <v>3.5579999999999998</v>
+      </c>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
       <c r="G554" s="13" t="str">
@@ -16648,8 +16718,8 @@
       <c r="K554" s="20"/>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="40">
-        <v>45413</v>
+      <c r="A555" s="48" t="s">
+        <v>418</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16667,7 +16737,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45444</v>
+        <v>45292</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16685,7 +16755,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16703,7 +16773,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16721,7 +16791,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16739,7 +16809,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16757,7 +16827,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16775,7 +16845,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16793,7 +16863,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16811,7 +16881,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16829,7 +16899,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45717</v>
+        <v>45566</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16847,7 +16917,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45748</v>
+        <v>45597</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16865,7 +16935,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16883,7 +16953,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45809</v>
+        <v>45658</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16901,7 +16971,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45839</v>
+        <v>45689</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16919,7 +16989,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45870</v>
+        <v>45717</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16937,7 +17007,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45901</v>
+        <v>45748</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16955,7 +17025,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16973,7 +17043,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16991,7 +17061,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45992</v>
+        <v>45839</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -17009,7 +17079,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>46023</v>
+        <v>45870</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -17027,7 +17097,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>46054</v>
+        <v>45901</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -17045,7 +17115,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>46082</v>
+        <v>45931</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -17063,7 +17133,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>46113</v>
+        <v>45962</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -17081,7 +17151,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>46143</v>
+        <v>45992</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -17099,7 +17169,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -17117,7 +17187,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>46204</v>
+        <v>46054</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17135,7 +17205,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>46235</v>
+        <v>46082</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17153,7 +17223,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>46266</v>
+        <v>46113</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17171,7 +17241,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>46296</v>
+        <v>46143</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17189,7 +17259,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>46327</v>
+        <v>46174</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17207,7 +17277,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>46357</v>
+        <v>46204</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17225,7 +17295,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>46388</v>
+        <v>46235</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17243,7 +17313,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>46419</v>
+        <v>46266</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17261,7 +17331,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>46447</v>
+        <v>46296</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17279,7 +17349,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>46478</v>
+        <v>46327</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17297,7 +17367,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>46508</v>
+        <v>46357</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17315,7 +17385,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>46539</v>
+        <v>46388</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17333,7 +17403,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>46569</v>
+        <v>46419</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17351,7 +17421,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>46600</v>
+        <v>46447</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17369,7 +17439,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>46631</v>
+        <v>46478</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17387,7 +17457,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>46661</v>
+        <v>46508</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17405,7 +17475,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>46692</v>
+        <v>46539</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17423,7 +17493,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>46722</v>
+        <v>46569</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17441,7 +17511,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>46753</v>
+        <v>46600</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17459,7 +17529,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>46784</v>
+        <v>46631</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17477,7 +17547,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>46813</v>
+        <v>46661</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17495,7 +17565,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>46844</v>
+        <v>46692</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17513,7 +17583,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>46874</v>
+        <v>46722</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17531,7 +17601,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>46905</v>
+        <v>46753</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17549,7 +17619,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>46935</v>
+        <v>46784</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17567,7 +17637,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>46966</v>
+        <v>46813</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17585,7 +17655,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46997</v>
+        <v>46844</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17603,7 +17673,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>47027</v>
+        <v>46874</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17621,7 +17691,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>47058</v>
+        <v>46905</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17636,6 +17706,96 @@
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610" s="40">
+        <v>46935</v>
+      </c>
+      <c r="B610" s="20"/>
+      <c r="C610" s="13"/>
+      <c r="D610" s="39"/>
+      <c r="E610" s="9"/>
+      <c r="F610" s="20"/>
+      <c r="G610" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H610" s="39"/>
+      <c r="I610" s="9"/>
+      <c r="J610" s="11"/>
+      <c r="K610" s="20"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A611" s="40">
+        <v>46966</v>
+      </c>
+      <c r="B611" s="20"/>
+      <c r="C611" s="13"/>
+      <c r="D611" s="39"/>
+      <c r="E611" s="9"/>
+      <c r="F611" s="20"/>
+      <c r="G611" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H611" s="39"/>
+      <c r="I611" s="9"/>
+      <c r="J611" s="11"/>
+      <c r="K611" s="20"/>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A612" s="40">
+        <v>46997</v>
+      </c>
+      <c r="B612" s="20"/>
+      <c r="C612" s="13"/>
+      <c r="D612" s="39"/>
+      <c r="E612" s="9"/>
+      <c r="F612" s="20"/>
+      <c r="G612" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H612" s="39"/>
+      <c r="I612" s="9"/>
+      <c r="J612" s="11"/>
+      <c r="K612" s="20"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A613" s="40">
+        <v>47027</v>
+      </c>
+      <c r="B613" s="20"/>
+      <c r="C613" s="13"/>
+      <c r="D613" s="39"/>
+      <c r="E613" s="9"/>
+      <c r="F613" s="20"/>
+      <c r="G613" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H613" s="39"/>
+      <c r="I613" s="9"/>
+      <c r="J613" s="11"/>
+      <c r="K613" s="20"/>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A614" s="40">
+        <v>47058</v>
+      </c>
+      <c r="B614" s="20"/>
+      <c r="C614" s="13"/>
+      <c r="D614" s="39"/>
+      <c r="E614" s="9"/>
+      <c r="F614" s="20"/>
+      <c r="G614" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H614" s="39"/>
+      <c r="I614" s="9"/>
+      <c r="J614" s="11"/>
+      <c r="K614" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17748,11 +17908,11 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.7000000000000001E-2</v>
+        <v>3.7000000000000019E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
